--- a/HRR-Hardware-RoboIME.xlsx
+++ b/HRR-Hardware-RoboIME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\OneDrive\Documentos\Trabalhos IME\Extras\RoboIME\HRR\HRR-Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Documents\GitHub\HRR-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{30DDFC1F-0A42-439D-A261-F2EB8CF7187A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{86B7F4F0-7855-40F4-98FC-5571DC4FAEBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E78EE2-A6EE-47DF-BCFE-00F255EB5E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17025" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{FDB17D6B-ECCA-470A-B771-B8CE57776A7B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{FDB17D6B-ECCA-470A-B771-B8CE57776A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="HRR-Hardware" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="194">
   <si>
     <t>Comment</t>
   </si>
@@ -423,9 +433,6 @@
     <t>Tem na IMBEL?</t>
   </si>
   <si>
-    <t>Substitutos</t>
-  </si>
-  <si>
     <t>05.284.001.520</t>
   </si>
   <si>
@@ -607,6 +614,12 @@
   </si>
   <si>
     <t>Comprar na Mouser (VLS6045EX-4R7M-H) ou 05.286.035.011 (CDRH5D18NP-4R1)</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -636,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -679,14 +692,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -694,11 +741,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1016,882 +1087,956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2FBC5-24FA-4A88-B898-134EBBF52D06}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="118.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="H21" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="4">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="G29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="G31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="5">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="G39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="5">
         <v>72</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="5">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="5">
-        <v>6</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="G40" t="s">
         <v>177</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="7">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="7">
-        <v>72</v>
-      </c>
-      <c r="G40" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/HRR-Hardware-RoboIME.xlsx
+++ b/HRR-Hardware-RoboIME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\OneDrive\Documentos\Trabalhos IME\Extras\RoboIME\HRR\HRR-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{30DDFC1F-0A42-439D-A261-F2EB8CF7187A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{86B7F4F0-7855-40F4-98FC-5571DC4FAEBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0F711-E4A4-44E0-983C-122AC83279A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17025" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{FDB17D6B-ECCA-470A-B771-B8CE57776A7B}"/>
+    <workbookView xWindow="17025" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{FDB17D6B-ECCA-470A-B771-B8CE57776A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="HRR-Hardware" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="192">
   <si>
     <t>Comment</t>
   </si>
@@ -421,9 +421,6 @@
   </si>
   <si>
     <t>Tem na IMBEL?</t>
-  </si>
-  <si>
-    <t>Substitutos</t>
   </si>
   <si>
     <t>05.284.001.520</t>
@@ -636,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -659,35 +656,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -697,7 +672,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,10 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2FBC5-24FA-4A88-B898-134EBBF52D06}">
-  <dimension ref="A1:H40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,874 +1009,889 @@
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="118.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="3">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="G29" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="G31" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G37" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B39" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="G39" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8">
         <v>72</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="5">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="5">
-        <v>6</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="7">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="7">
-        <v>72</v>
-      </c>
-      <c r="G40" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>